--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.34.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.34.xlsx
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1255,7 +1255,7 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1423,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1493,7 +1493,7 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1563,7 +1563,7 @@
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1605,7 +1605,7 @@
         <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1717,7 +1717,7 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -1871,7 +1871,7 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -2039,7 +2039,7 @@
         <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -2123,7 +2123,7 @@
         <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
